--- a/CompletedGraphsList.xlsx
+++ b/CompletedGraphsList.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="22995" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12810" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>List of Strongly Regular Graphs</t>
   </si>
@@ -252,9 +252,6 @@
     <t>(16) Complete Bipartite Graph</t>
   </si>
   <si>
-    <t>Completement of (4,4 )Lattice Graph</t>
-  </si>
-  <si>
     <t>5-Halved Cube Graph</t>
   </si>
   <si>
@@ -315,14 +312,350 @@
     <t>13-Cocktail Party Graph</t>
   </si>
   <si>
-    <t>Generalized Quadrangle GQ(2, 4)</t>
+    <t>Completement of (4,4)Lattice Graph</t>
+  </si>
+  <si>
+    <t>(27, 16, 10, 8)</t>
+  </si>
+  <si>
+    <t>(28, 12, 6, 4)</t>
+  </si>
+  <si>
+    <t>(28, 14, 0, 14)</t>
+  </si>
+  <si>
+    <t>(28, 15, 6, 10)</t>
+  </si>
+  <si>
+    <t>(28, 26, 24, 26)</t>
+  </si>
+  <si>
+    <t>(29, 14, 6, 7)</t>
+  </si>
+  <si>
+    <t>(30, 15, 0, 15)</t>
+  </si>
+  <si>
+    <t>(30, 28, 26, 28)</t>
+  </si>
+  <si>
+    <t>(32, 16, 0, 16)</t>
+  </si>
+  <si>
+    <t>(32, 30, 28, 30)</t>
+  </si>
+  <si>
+    <t>(34, 17, 0, 17)</t>
+  </si>
+  <si>
+    <t>(34, 32, 30, 32)</t>
+  </si>
+  <si>
+    <t>(36, 10, 4, 2)</t>
+  </si>
+  <si>
+    <t>(36, 14, 4, 6)</t>
+  </si>
+  <si>
+    <t>(36, 14, 7, 4)</t>
+  </si>
+  <si>
+    <t>(36, 18, 0, 18)</t>
+  </si>
+  <si>
+    <t>(36, 21, 10, 15)</t>
+  </si>
+  <si>
+    <t>(36, 34, 32, 34)</t>
+  </si>
+  <si>
+    <t>(37, 18, 8, 9)</t>
+  </si>
+  <si>
+    <t>(38, 19, 0, 9)</t>
+  </si>
+  <si>
+    <t>(38, 36, 34, 36)</t>
+  </si>
+  <si>
+    <t>(40, 20, 0, 20)</t>
+  </si>
+  <si>
+    <t>(40, 38, 36, 38)</t>
+  </si>
+  <si>
+    <t>(41, 20, 9, 10)</t>
+  </si>
+  <si>
+    <t>(45, 16, 8, 4)</t>
+  </si>
+  <si>
+    <t>(45, 28, 15, 21)</t>
+  </si>
+  <si>
+    <t>(49, 12, 5, 2)</t>
+  </si>
+  <si>
+    <t>(49, 24, 11, 12)</t>
+  </si>
+  <si>
+    <t>(50, 7, 0, 1)</t>
+  </si>
+  <si>
+    <t>(50, 42, 35, 36)</t>
+  </si>
+  <si>
+    <t>(53, 26, 12, 13)</t>
+  </si>
+  <si>
+    <t>(55, 18, 9, 4)</t>
+  </si>
+  <si>
+    <t>(55, 36, 21, 28)</t>
+  </si>
+  <si>
+    <t>(56, 10, 0, 2)</t>
+  </si>
+  <si>
+    <t>(61, 30, 14, 15)</t>
+  </si>
+  <si>
+    <t>(63, 32, 16, 16)</t>
+  </si>
+  <si>
+    <t>(64, 14, 6, 2)</t>
+  </si>
+  <si>
+    <t>(64, 21, 8, 6)</t>
+  </si>
+  <si>
+    <t>(66, 20, 10, 4)</t>
+  </si>
+  <si>
+    <t>(66, 45, 28, 36)</t>
+  </si>
+  <si>
+    <t>(73, 36, 17, 18)</t>
+  </si>
+  <si>
+    <t>(77, 16, 0, 4)</t>
+  </si>
+  <si>
+    <t>(78, 22, 11, 4)</t>
+  </si>
+  <si>
+    <t>(78, 55, 36, 45)</t>
+  </si>
+  <si>
+    <t>(81, 16, 7, 2)</t>
+  </si>
+  <si>
+    <t>(81, 20, 1, 6)</t>
+  </si>
+  <si>
+    <t>(81, 40, 19, 20)</t>
+  </si>
+  <si>
+    <t>(89, 44, 21, 22)</t>
+  </si>
+  <si>
+    <t>(91, 24, 12, 4)</t>
+  </si>
+  <si>
+    <t>(91, 66, 45, 55)</t>
+  </si>
+  <si>
+    <t>Generalized Quadrangle(2, 4)</t>
+  </si>
+  <si>
+    <t>Schläfli Graph</t>
+  </si>
+  <si>
+    <t>8-Triangular Graph</t>
+  </si>
+  <si>
+    <t>(28) Complete Bipartite Graph</t>
+  </si>
+  <si>
+    <t>(8, 2)-Kneser Graph</t>
+  </si>
+  <si>
+    <t>14-Cocktail Party Graph</t>
+  </si>
+  <si>
+    <t>29-Paley Graph</t>
+  </si>
+  <si>
+    <t>(30) Complete Bipartite Graph</t>
+  </si>
+  <si>
+    <t>15-Cocktail Party Graph</t>
+  </si>
+  <si>
+    <t>16-Cocktail Party Graph</t>
+  </si>
+  <si>
+    <t>17-Cocktail Party Graph</t>
+  </si>
+  <si>
+    <t>18-Cocktail Party Graph</t>
+  </si>
+  <si>
+    <t>19-Cocktail Party Graph</t>
+  </si>
+  <si>
+    <t>20-Cocktail Party Graph</t>
+  </si>
+  <si>
+    <t>(32) Complete Bipartite Graph</t>
+  </si>
+  <si>
+    <t>(34) Complete Bipartite Graph</t>
+  </si>
+  <si>
+    <t>(6, 6)-Lattice Graph</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3) Graph</t>
+    </r>
+  </si>
+  <si>
+    <t>9-Triangular Graph</t>
+  </si>
+  <si>
+    <t>(36) Complete Bipartite Graph</t>
+  </si>
+  <si>
+    <t>(9, 2)-Kneser Graph</t>
+  </si>
+  <si>
+    <t>37-Paley Graph</t>
+  </si>
+  <si>
+    <t>(38) Complete Bipartite Graph</t>
+  </si>
+  <si>
+    <t>(40) Complete Bipartite Graph</t>
+  </si>
+  <si>
+    <t>41-Paley Graph</t>
+  </si>
+  <si>
+    <t>10-Triangular Graph</t>
+  </si>
+  <si>
+    <t>(10, 2)-Kneser Graph</t>
+  </si>
+  <si>
+    <t>(7, 7)-Lattice Graph</t>
+  </si>
+  <si>
+    <t>49-Paley Graph</t>
+  </si>
+  <si>
+    <t>Hoffman-Singleton Graph</t>
+  </si>
+  <si>
+    <t>Hoffman-Singleton Complement Graph</t>
+  </si>
+  <si>
+    <t>53-Paley Graph</t>
+  </si>
+  <si>
+    <t>11-Triangular Graph</t>
+  </si>
+  <si>
+    <t>(11, 2)-Kneser Graph</t>
+  </si>
+  <si>
+    <t>Gewirtz Graph</t>
+  </si>
+  <si>
+    <t>61-Paley Graph</t>
+  </si>
+  <si>
+    <t>(63, 32, 16, 16)-Strongly Regular Graph</t>
+  </si>
+  <si>
+    <t>(8, 8)-Lattice Graph</t>
+  </si>
+  <si>
+    <t>64-Cyclotomic Graph</t>
+  </si>
+  <si>
+    <t>12-Triangular Graph</t>
+  </si>
+  <si>
+    <t>(12, 2)-Kneser Graph</t>
+  </si>
+  <si>
+    <t>73-Paley Graph</t>
+  </si>
+  <si>
+    <t>M22 Graph</t>
+  </si>
+  <si>
+    <t>13-Triangular Graph</t>
+  </si>
+  <si>
+    <t>(13, 2)-Kneser Graph</t>
+  </si>
+  <si>
+    <t>(9, 9)-Lattice Graph</t>
+  </si>
+  <si>
+    <t>Brouwer-Haemers Graph</t>
+  </si>
+  <si>
+    <t>81-Paley Graph</t>
+  </si>
+  <si>
+    <t>89-Paley Graph</t>
+  </si>
+  <si>
+    <t>14-Triangular Graph</t>
+  </si>
+  <si>
+    <t>(14, 2)-Kneser Graph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,14 +666,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,14 +688,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +777,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -463,15 +857,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF002060"/>
       </right>
@@ -500,37 +885,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF002060"/>
@@ -542,13 +896,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF002060"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,11 +933,52 @@
       <right style="thin">
         <color rgb="FF002060"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,99 +986,118 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,7 +1108,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF008000"/>
       <color rgb="FFEAEAEA"/>
+      <color rgb="FF003300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -970,586 +1408,1303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="32" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="31" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="32" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="31" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="32" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="31" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="31" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="32" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="31" t="s">
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="32" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="31" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="32" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="31" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="32" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="31" t="s">
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="32" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="31" t="s">
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="32" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="31" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="33" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="38"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="38"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="37"/>
+      <c r="E66" s="38"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="37"/>
+      <c r="E67" s="38"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="37"/>
+      <c r="E68" s="38"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="37"/>
+      <c r="E71" s="38"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="37"/>
+      <c r="E73" s="38"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="37"/>
+      <c r="E76" s="38"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="37"/>
+      <c r="E77" s="38"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="37"/>
+      <c r="E78" s="38"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="37"/>
+      <c r="E79" s="38"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="37"/>
+      <c r="E82" s="38"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="37"/>
+      <c r="E83" s="38"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="37"/>
+      <c r="E84" s="38"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="37"/>
+      <c r="E85" s="38"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="37"/>
+      <c r="E86" s="38"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="37"/>
+      <c r="E87" s="38"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="15"/>
+      <c r="C88" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="37"/>
+      <c r="E89" s="38"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="37"/>
+      <c r="E90" s="38"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="37"/>
+      <c r="E91" s="38"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="37"/>
+      <c r="E92" s="38"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="37"/>
+      <c r="E93" s="38"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="37"/>
+      <c r="E94" s="38"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="37"/>
+      <c r="E95" s="38"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="37"/>
+      <c r="E96" s="38"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" s="37"/>
+      <c r="E97" s="38"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="37"/>
+      <c r="E98" s="38"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="37"/>
+      <c r="E99" s="38"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="15"/>
+      <c r="C100" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" s="37"/>
+      <c r="E100" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
+  <mergeCells count="199">
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A1:E1"/>
@@ -1566,74 +2721,8 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
